--- a/Testing/Test Cases/Previous Transactions TC.xlsx
+++ b/Testing/Test Cases/Previous Transactions TC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet-Banking-System\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,469 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Internet Banking System</t>
+  </si>
+  <si>
+    <t>Test Designed by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khadija Mostafa </t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Designed date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition </t>
+  </si>
+  <si>
+    <t>SRS ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>15/5/2019</t>
+  </si>
+  <si>
+    <t>previous transactions</t>
+  </si>
+  <si>
+    <t>1-Open google chrome 
+2- Navigate to URL "      "
+3-customer logged in sucessfully .</t>
+  </si>
+  <si>
+    <t>validate that customer can logout successfully 
+from his previous transaction page.</t>
+  </si>
+  <si>
+    <t>validate customer redirection to his
+ account page from his previous transaction page if he clicks back from browser bar .</t>
+  </si>
+  <si>
+    <t>validate customer redirection to his listing 
+page with the correct previous transactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that error messgae appears if customer chose aperiod with no previous transactions.
+</t>
+  </si>
+  <si>
+    <t>validate  the options of cascaded dropbox if customer chose week from the first dropbox .</t>
+  </si>
+  <si>
+    <t>validate  the options of cascaded dropbox if customer chose month from the first dropbox .</t>
+  </si>
+  <si>
+    <t>validate  the options of cascaded dropbox if customer chose year from the first dropbox .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R001</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R002</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R003</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R004</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R005</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R006</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R007</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R008</t>
+  </si>
+  <si>
+    <t>validate that customer can logout successfully 
+from his listing page.</t>
+  </si>
+  <si>
+    <t>validate customer redirection to his
+ previous transaction page from his listing page if he clicks back from browser bar .</t>
+  </si>
+  <si>
+    <t>validate customer redirection to his
+ main/accounts page from his previous transaction page .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R009</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R010</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R011</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R012</t>
+  </si>
+  <si>
+    <t>validate that functionality of next button in the 
+listing page .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R013</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+validate that the amount of money displayed in 
+red in case customer transfer 
+money to other account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+validate that the amount of money displayed in 
+green in case customer receive 
+money from other account.</t>
+  </si>
+  <si>
+    <t>validate that the account id money sent from is displayed.</t>
+  </si>
+  <si>
+    <t>validate that the account id  receive money is displayed.</t>
+  </si>
+  <si>
+    <t>validate the functionality of the scroll bar .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R015</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R016</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R017</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R018</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R019</t>
+  </si>
+  <si>
+    <t>validate that the displayed the number of 
+ previous transaction is 10 in case customer chose 10 from the items list.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R011</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R012</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R013</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R035</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R037</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R038</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R033</t>
+  </si>
+  <si>
+    <t>validate customer redirection to his
+  main/ ccounts page from his listings page .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R039</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R032</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R015</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R014</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R017</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R020</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R021</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R022</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R018</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R019</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R020</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open </t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose week from the first dropbox .</t>
+  </si>
+  <si>
+    <t>cascaded fropbox shall be displayed 
+with option from 1:4.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose month from the first dropbox .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first dropbox .</t>
+  </si>
+  <si>
+    <t>cascaded fropbox shall be displayed 
+with option from 1:12.</t>
+  </si>
+  <si>
+    <t>cascaded fropbox shall be displayed 
+with option from 1:5.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- click on the logout hyper link .</t>
+  </si>
+  <si>
+    <t>Customer shall be redirected to login page with empty fields .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer shall be redirected to login
+ page with empty fields </t>
+  </si>
+  <si>
+    <t>customer shall be redirected to his main/accounts page.</t>
+  </si>
+  <si>
+    <t>customer shall be redirected to his account page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button .
+2- click on the button accounts  .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button .
+2- click on back from the browser bar  .
+</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose week from the first drpbox  .
+3- choose 3 from the seconf dropbox.
+4- click on view button.
+5- click on back from the browser bar  .</t>
+  </si>
+  <si>
+    <t>customer shall be redirected to his previous transaction page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop up message shall be displayed if no transaction in this period with content 
+" no valid transactions in this period " </t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose week from the first drpbox  .
+3- choose 3 from the second dropbox.
+4- click on view button.</t>
+  </si>
+  <si>
+    <t>Customer shall be redirected back  to previous transaction page .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose week from the first drpbox  .
+3- choose 3 from the second dropbox.
+4- click on view button.
+5- click on back from the browser bar.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose month from the first drpbox  .
+3- choose 3 from the second dropbox.
+4- click on view button.
+5- select on radio button "10" from the items list.</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 10 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>validate that the displayed the number of 
+ previous transaction is 20 in case customer chose 20 from the items list.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select on radio button "20" from the items list.</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 20 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select on radio button "30" from the items list.</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 30 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>validate that the displayed the number of 
+ previous transaction is 30 in case customer chose 30 from the items list.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- click on the accounts button .</t>
+  </si>
+  <si>
+    <t>Customer shall be redirected to his 
+main/accounts page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that functionality of previous button in the listing page.
+</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select redio button"10" from the item list.
+6- click on the next button .</t>
+  </si>
+  <si>
+    <t>the next 10 previous transaction shall
+ be dislayed from latest to oldest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select redio button"10" from the item list.
+6- click on the next button .
+7- click on the previous button. </t>
+  </si>
+  <si>
+    <t>the latest 10 previous transaction shall
+ be dislayed from latest to oldest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select redio button"10" from the item list.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amount of money shall be 
+displayed in red for all transaction in whick customer  
+transfer money to other account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amount of money shall be 
+displayed in red for all transaction in whick customer  
+receive money from other account. </t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button .
+2- choose year from the first drpbox  .
+3- choose 5 from the second dropbox.
+4- click on view button.
+5- select redio button"30" from the item list.
+6- scroll down by using scroll bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the account id from which money sent shall be displayed in every previous transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the account id to which money sent shall be displayed in every previous transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer can scroll down using scroll bar to show the hidden previous transactions. </t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R021</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +493,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -50,12 +576,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +962,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:K5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Test Cases/Previous Transactions TC.xlsx
+++ b/Testing/Test Cases/Previous Transactions TC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>Project Name:</t>
   </si>
@@ -104,10 +104,6 @@
   <si>
     <t>validate customer redirection to his listing 
 page with the correct previous transactions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate that error messgae appears if customer chose aperiod with no previous transactions.
-</t>
   </si>
   <si>
     <t>validate  the options of cascaded dropbox if customer chose week from the first dropbox .</t>
@@ -213,10 +209,6 @@
     <t>BANK_SYS_TC_PT_R019</t>
   </si>
   <si>
-    <t>validate that the displayed the number of 
- previous transaction is 10 in case customer chose 10 from the items list.</t>
-  </si>
-  <si>
     <t>BANK_SYS_SRS_PT_R011</t>
   </si>
   <si>
@@ -286,10 +278,6 @@
   <si>
     <t>1- click on show previous transaction button .
 2- choose week from the first dropbox .</t>
-  </si>
-  <si>
-    <t>cascaded fropbox shall be displayed 
-with option from 1:4.</t>
   </si>
   <si>
     <t>1- click on show previous transaction button .
@@ -479,6 +467,58 @@
   </si>
   <si>
     <t>BANK_SYS_TC_PT_R021</t>
+  </si>
+  <si>
+    <t>cascaded dropbox shall be displayed 
+with option from 1:4.</t>
+  </si>
+  <si>
+    <t>Sondos Mahmoud</t>
+  </si>
+  <si>
+    <t>missing teast case to validate
+ in the scond drop box that 
+the default is 1</t>
+  </si>
+  <si>
+    <t>missing test case to validate
+ customer can view previous transaction maximum 5 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that error messgae appears if customer chose a period with no previous transactions.
+</t>
+  </si>
+  <si>
+    <t>validate that the displayed number of 
+ previous transaction is 10 in case customer chose 10 from the items list.</t>
+  </si>
+  <si>
+    <t>missing TC validate the 
+shape of arrow of the next button</t>
+  </si>
+  <si>
+    <t>missing TC validate the 
+shape of arrow of the previous button</t>
+  </si>
+  <si>
+    <t>expected result the amount 
+shall be im green not red</t>
+  </si>
+  <si>
+    <t>description and ER it is the account id 
+that user sent to which shall be 
+displayed not sent from</t>
+  </si>
+  <si>
+    <t>THE account id which user 
+received mony from it shall be shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be precondition to make transactions from and to the account . (general comment (
+missing teast case to validate
+ in the scond drop box that 
+the default is 1.
+</t>
   </si>
 </sst>
 </file>
@@ -625,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,12 +685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -681,6 +715,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,6 +1025,8 @@
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -1016,619 +1064,709 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>81</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>84</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>87</v>
+      <c r="E12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>90</v>
+      <c r="E13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>94</v>
+      <c r="E15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1636,5 +1774,6 @@
     <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Test Cases/Previous Transactions TC.xlsx
+++ b/Testing/Test Cases/Previous Transactions TC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\testing\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
   <si>
     <t>Project Name:</t>
   </si>
@@ -87,11 +87,6 @@
   </si>
   <si>
     <t>previous transactions</t>
-  </si>
-  <si>
-    <t>1-Open google chrome 
-2- Navigate to URL "      "
-3-customer logged in sucessfully .</t>
   </si>
   <si>
     <t>validate that customer can logout successfully 
@@ -185,12 +180,6 @@
 money from other account.</t>
   </si>
   <si>
-    <t>validate that the account id money sent from is displayed.</t>
-  </si>
-  <si>
-    <t>validate that the account id  receive money is displayed.</t>
-  </si>
-  <si>
     <t>validate the functionality of the scroll bar .</t>
   </si>
   <si>
@@ -276,30 +265,6 @@
     <t xml:space="preserve">open </t>
   </si>
   <si>
-    <t>1- click on show previous transaction button .
-2- choose week from the first dropbox .</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
-2- choose month from the first dropbox .</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
-2- choose year from the first dropbox .</t>
-  </si>
-  <si>
-    <t>cascaded fropbox shall be displayed 
-with option from 1:12.</t>
-  </si>
-  <si>
-    <t>cascaded fropbox shall be displayed 
-with option from 1:5.</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
-2- click on the logout hyper link .</t>
-  </si>
-  <si>
     <t>Customer shall be redirected to login page with empty fields .</t>
   </si>
   <si>
@@ -313,100 +278,207 @@
     <t>customer shall be redirected to his account page.</t>
   </si>
   <si>
-    <t xml:space="preserve">1- click on show previous transaction button .
+    <t>customer shall be redirected to his previous transaction page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop up message shall be displayed if no transaction in this period with content 
+" no valid transactions in this period " </t>
+  </si>
+  <si>
+    <t>Customer shall be redirected back  to previous transaction page .</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 10 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>validate that the displayed the number of 
+ previous transaction is 20 in case customer chose 20 from the items list.</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 20 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>the listing page shall dislay only the latest 30 previous transaction in the specific period .</t>
+  </si>
+  <si>
+    <t>validate that the displayed the number of 
+ previous transaction is 30 in case customer chose 30 from the items list.</t>
+  </si>
+  <si>
+    <t>Customer shall be redirected to his 
+main/accounts page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that functionality of previous button in the listing page.
+</t>
+  </si>
+  <si>
+    <t>the next 10 previous transaction shall
+ be dislayed from latest to oldest.</t>
+  </si>
+  <si>
+    <t>the latest 10 previous transaction shall
+ be dislayed from latest to oldest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amount of money shall be 
+displayed in red for all transaction in whick customer  
+transfer money to other account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the account id from which money sent shall be displayed in every previous transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the account id to which money sent shall be displayed in every previous transaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer can scroll down using scroll bar to show the hidden previous transactions. </t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R021</t>
+  </si>
+  <si>
+    <t>Sondos Mahmoud</t>
+  </si>
+  <si>
+    <t>missing teast case to validate
+ in the scond drop box that 
+the default is 1</t>
+  </si>
+  <si>
+    <t>missing test case to validate
+ customer can view previous transaction maximum 5 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that error messgae appears if customer chose a period with no previous transactions.
+</t>
+  </si>
+  <si>
+    <t>validate that the displayed number of 
+ previous transaction is 10 in case customer chose 10 from the items list.</t>
+  </si>
+  <si>
+    <t>missing TC validate the 
+shape of arrow of the next button</t>
+  </si>
+  <si>
+    <t>missing TC validate the 
+shape of arrow of the previous button</t>
+  </si>
+  <si>
+    <t>expected result the amount 
+shall be im green not red</t>
+  </si>
+  <si>
+    <t>description and ER it is the account id 
+that user sent to which shall be 
+displayed not sent from</t>
+  </si>
+  <si>
+    <t>THE account id which user 
+received mony from it shall be shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be precondition to make transactions from and to the account . (general comment (
+missing teast case to validate
+ in the scond drop box that 
+the default is 1.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open google chrome 
+2- Navigate to URL "      "
+3-customer logged in sucessfully .
+</t>
+  </si>
+  <si>
+    <t>cascaded dropbox shall be displayed 
+with option from 1:4 selected by default on 1.</t>
+  </si>
+  <si>
+    <t>cascaded fropbox shall be displayed 
+with option from 1:12  selected by default on 1.</t>
+  </si>
+  <si>
+    <t>cascaded fropbox shall be displayed 
+with option from 1:5  selected by default on 1.</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button for the first account in the main/accounts page  .
+2- choose week from the first dropbox .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
+2- choose month from the first dropbox .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
+2- choose year from the first dropbox .</t>
+  </si>
+  <si>
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
+2- click on the logout hyper link .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button  for the first account in the main/accounts page  .
+2- click on back from the browser bar  .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- click on the button accounts  .
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1- click on show previous transaction button .
-2- click on back from the browser bar  .
-</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose week from the first drpbox  .
 3- choose 3 from the seconf dropbox.
 4- click on view button.
 5- click on back from the browser bar  .</t>
   </si>
   <si>
-    <t>customer shall be redirected to his previous transaction page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pop up message shall be displayed if no transaction in this period with content 
-" no valid transactions in this period " </t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose week from the first drpbox  .
 3- choose 3 from the second dropbox.
 4- click on view button.</t>
   </si>
   <si>
-    <t>Customer shall be redirected back  to previous transaction page .</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose week from the first drpbox  .
 3- choose 3 from the second dropbox.
 4- click on view button.
 5- click on back from the browser bar.</t>
   </si>
   <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose month from the first drpbox  .
 3- choose 3 from the second dropbox.
 4- click on view button.
 5- select on radio button "10" from the items list.</t>
   </si>
   <si>
-    <t>the listing page shall dislay only the latest 10 previous transaction in the specific period .</t>
-  </si>
-  <si>
-    <t>validate that the displayed the number of 
- previous transaction is 20 in case customer chose 20 from the items list.</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
 5- select on radio button "20" from the items list.</t>
   </si>
   <si>
-    <t>the listing page shall dislay only the latest 20 previous transaction in the specific period .</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
 5- select on radio button "30" from the items list.</t>
   </si>
   <si>
-    <t>the listing page shall dislay only the latest 30 previous transaction in the specific period .</t>
-  </si>
-  <si>
-    <t>validate that the displayed the number of 
- previous transaction is 30 in case customer chose 30 from the items list.</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
 5- click on the accounts button .</t>
   </si>
   <si>
-    <t>Customer shall be redirected to his 
-main/accounts page .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate that functionality of previous button in the listing page.
-</t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
@@ -414,11 +486,7 @@
 6- click on the next button .</t>
   </si>
   <si>
-    <t>the next 10 previous transaction shall
- be dislayed from latest to oldest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- click on show previous transaction button .
+    <t xml:space="preserve">1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
@@ -427,11 +495,7 @@
 7- click on the previous button. </t>
   </si>
   <si>
-    <t>the latest 10 previous transaction shall
- be dislayed from latest to oldest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- click on show previous transaction button .
+    <t xml:space="preserve">1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
@@ -439,17 +503,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">the amount of money shall be 
-displayed in red for all transaction in whick customer  
-transfer money to other account. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the amount of money shall be 
-displayed in red for all transaction in whick customer  
-receive money from other account. </t>
-  </si>
-  <si>
-    <t>1- click on show previous transaction button .
+    <t>1- click on show previous transaction button  for the first account in the main/accounts page  .
 2- choose year from the first drpbox  .
 3- choose 5 from the second dropbox.
 4- click on view button.
@@ -457,68 +511,87 @@
 6- scroll down by using scroll bar.</t>
   </si>
   <si>
-    <t xml:space="preserve">the account id from which money sent shall be displayed in every previous transaction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the account id to which money sent shall be displayed in every previous transaction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer can scroll down using scroll bar to show the hidden previous transactions. </t>
-  </si>
-  <si>
-    <t>BANK_SYS_TC_PT_R021</t>
-  </si>
-  <si>
-    <t>cascaded dropbox shall be displayed 
-with option from 1:4.</t>
-  </si>
-  <si>
-    <t>Sondos Mahmoud</t>
-  </si>
-  <si>
-    <t>missing teast case to validate
- in the scond drop box that 
-the default is 1</t>
-  </si>
-  <si>
-    <t>missing test case to validate
- customer can view previous transaction maximum 5 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate that error messgae appears if customer chose a period with no previous transactions.
+    <t>validate that the account id  that receives money is displayed for every transaction.</t>
+  </si>
+  <si>
+    <t>validate that the account id money sent from is displayed for every transaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amount of money shall be 
+displayed in green  for all transaction in whick customer  
+receive money from other account. </t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_PT_R022</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>1- validate that previous transaction page contains cascaded dropbox.
+2-validate that previous transaction page contains view button.
+3- validate that previous transaction page contains accounts button.
+4- validate that previous transaction page contains logout hyper link .</t>
+  </si>
+  <si>
+    <t>previous tranaction page contains 
+1- cascaded dropbox.
+2- view button.
+3- accounts button.
+4- logout hyper link .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK_SYS_SRS_PT_R09
+BANK_SYS_SRS_PT_R010
+BANK_SYS_SRS_PT_R032
+BANK_SYS_SRS_PT_R035
 </t>
   </si>
   <si>
-    <t>validate that the displayed number of 
- previous transaction is 10 in case customer chose 10 from the items list.</t>
-  </si>
-  <si>
-    <t>missing TC validate the 
-shape of arrow of the next button</t>
-  </si>
-  <si>
-    <t>missing TC validate the 
-shape of arrow of the previous button</t>
-  </si>
-  <si>
-    <t>expected result the amount 
-shall be im green not red</t>
-  </si>
-  <si>
-    <t>description and ER it is the account id 
-that user sent to which shall be 
-displayed not sent from</t>
-  </si>
-  <si>
-    <t>THE account id which user 
-received mony from it shall be shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">must be precondition to make transactions from and to the account . (general comment (
-missing teast case to validate
- in the scond drop box that 
-the default is 1.
+    <t>BANK_SYS_TC_PT_R023</t>
+  </si>
+  <si>
+    <t>validate that all elements are exist in the listing page  .</t>
+  </si>
+  <si>
+    <t>validate that all elements are exist in the previous transaction page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created by </t>
+  </si>
+  <si>
+    <t>khadija mostafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that all elements are exist in the registeration form 
 </t>
+  </si>
+  <si>
+    <t>1- validate that listing page contains scroll bar.
+2-validate that listng page contains (amount / id from / id to ) for every transaction.
+3- validate that listing page contains accounts button.
+4- validate that listing page contains logout hyper link .
+5- next button in the form of next arrow 
+6- previous button in the form of previous 
+arrow .</t>
+  </si>
+  <si>
+    <t>listing page 
+1-  scroll bar.
+2- (amount / id from / id to ) for every transaction.
+3- accounts button.
+4- logout hyper link .
+5- next button in the form of next arrow.
+6- previous button in the form of 
+previous arrow.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R039
+BANK_SYS_SRS_PT_R035
+BANK_SYS_SRS_PT_R031
+BANK_SYS_SRS_PT_R020
+BANK_SYS_SRS_PT_R021
+BANK_SYS_SRS_PT_R022</t>
   </si>
 </sst>
 </file>
@@ -716,17 +789,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,13 +1097,13 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1058,30 +1131,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1091,11 +1165,12 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="12"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -1124,654 +1199,783 @@
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="F18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="F19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="C29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+      <c r="K29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C58" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Testing/Test Cases/Previous Transactions TC.xlsx
+++ b/Testing/Test Cases/Previous Transactions TC.xlsx
@@ -541,57 +541,64 @@
 4- logout hyper link .</t>
   </si>
   <si>
+    <t>BANK_SYS_TC_PT_R023</t>
+  </si>
+  <si>
+    <t>validate that all elements are exist in the listing page  .</t>
+  </si>
+  <si>
+    <t>validate that all elements are exist in the previous transaction page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created by </t>
+  </si>
+  <si>
+    <t>khadija mostafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that all elements are exist in the registeration form 
+</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_PT_R039
+BANK_SYS_SRS_PT_R035
+BANK_SYS_SRS_PT_R031
+BANK_SYS_SRS_PT_R020
+BANK_SYS_SRS_PT_R021
+BANK_SYS_SRS_PT_R022</t>
+  </si>
+  <si>
     <t xml:space="preserve">BANK_SYS_SRS_PT_R09
 BANK_SYS_SRS_PT_R010
 BANK_SYS_SRS_PT_R032
 BANK_SYS_SRS_PT_R035
+BANK_SYS_SRS_PT_R009
 </t>
   </si>
   <si>
-    <t>BANK_SYS_TC_PT_R023</t>
-  </si>
-  <si>
-    <t>validate that all elements are exist in the listing page  .</t>
-  </si>
-  <si>
-    <t>validate that all elements are exist in the previous transaction page .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created by </t>
-  </si>
-  <si>
-    <t>khadija mostafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate that all elements are exist in the registeration form 
-</t>
-  </si>
-  <si>
-    <t>1- validate that listing page contains scroll bar.
+    <t xml:space="preserve">1- validate that listing page contains scroll bar.
 2-validate that listng page contains (amount / id from / id to ) for every transaction.
 3- validate that listing page contains accounts button.
 4- validate that listing page contains logout hyper link .
 5- next button in the form of next arrow 
 6- previous button in the form of previous 
-arrow .</t>
-  </si>
-  <si>
-    <t>listing page 
+arrow .
+7- listed items 
+with three radio buttons (10, 20, 30) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing page 
 1-  scroll bar.
 2- (amount / id from / id to ) for every transaction.
 3- accounts button.
 4- logout hyper link .
 5- next button in the form of next arrow.
 6- previous button in the form of 
-previous arrow.</t>
-  </si>
-  <si>
-    <t>BANK_SYS_SRS_PT_R039
-BANK_SYS_SRS_PT_R035
-BANK_SYS_SRS_PT_R031
-BANK_SYS_SRS_PT_R020
-BANK_SYS_SRS_PT_R021
-BANK_SYS_SRS_PT_R022</t>
+previous arrow.
+7- listed items 
+with three radio buttons (10, 20, 30) 
+</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>16</v>
@@ -1234,7 +1241,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
@@ -1269,7 +1276,7 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
@@ -1304,7 +1311,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
@@ -1339,7 +1346,7 @@
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -1371,7 +1378,7 @@
         <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
@@ -1403,7 +1410,7 @@
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
@@ -1435,7 +1442,7 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
@@ -1470,7 +1477,7 @@
         <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
@@ -1502,7 +1509,7 @@
         <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
@@ -1534,7 +1541,7 @@
         <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
@@ -1566,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -1598,7 +1605,7 @@
         <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
@@ -1630,7 +1637,7 @@
         <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
@@ -1662,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
@@ -1694,7 +1701,7 @@
         <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
@@ -1729,7 +1736,7 @@
         <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
@@ -1764,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
@@ -1796,7 +1803,7 @@
         <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
@@ -1831,7 +1838,7 @@
         <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s">
         <v>74</v>
@@ -1866,7 +1873,7 @@
         <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s">
         <v>74</v>
@@ -1901,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s">
         <v>74</v>
@@ -1912,13 +1919,13 @@
     </row>
     <row r="30" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>133</v>
@@ -1933,27 +1940,27 @@
         <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="H31" t="s">
         <v>72</v>
@@ -1962,7 +1969,7 @@
         <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s">
         <v>74</v>
@@ -1970,7 +1977,7 @@
     </row>
     <row r="58" spans="3:3" ht="75" x14ac:dyDescent="0.25">
       <c r="C58" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
